--- a/src/test/resources/BookItQa3.xlsx
+++ b/src/test/resources/BookItQa3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cydeo/IdeaProjects/RestAssured/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD15C9-65F2-0649-A9C2-4986D93C6D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C3FA22-B865-DB4E-83FB-41BEAEC8C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{EE4F955A-F690-2F49-9A0F-2DC077CE6888}"/>
+    <workbookView xWindow="9640" yWindow="2660" windowWidth="28040" windowHeight="17440" xr2:uid="{EE4F955A-F690-2F49-9A0F-2DC077CE6888}"/>
   </bookViews>
   <sheets>
     <sheet name="QA3" sheetId="1" r:id="rId1"/>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91BD84C-CFFD-594B-8C7D-0C30CE6C2E0C}">
   <dimension ref="A1:B281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="288" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
